--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B3"/>
+  <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,18 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Recalculate Insurance Button</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SL3511291</t>
+          <t>BD0604549</t>
         </is>
       </c>
     </row>
@@ -456,6 +456,254 @@
           <t>Available</t>
         </is>
       </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Nominee Name</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Test Test</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Nominee Relationship</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brother</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Annual Income</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Save Insurance Button</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Click</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Insurance details save</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Insurance premium saved</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Letter Loan Number</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BD0604549</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Loan Request Amount</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sanction Amount</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>44453</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ROI</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PF (%)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Tenure</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Insurance Amount</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Insured Applicant</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Ffg Hbvv</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Stamp Duty</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Processing Fees</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1334</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>IMD Deduction</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3800</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Internal BT Deduction</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Other charges</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Other Charge Comment</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Loan Type</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>select option
+Fresh
+Renew
+TopUp
+BT</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>All cloud File Number</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
